--- a/PowerBI_Dataset/xlsx/df_cg.xlsx
+++ b/PowerBI_Dataset/xlsx/df_cg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="288">
   <si>
     <t>processo</t>
   </si>
@@ -217,22 +217,22 @@
     <t>53115.007232/2021-09</t>
   </si>
   <si>
-    <t>BANCADA DE ALAGOAS</t>
-  </si>
-  <si>
-    <t>BANCADA DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>BANCADA DE SAO PAULO</t>
-  </si>
-  <si>
-    <t>BANCADA DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCADA DO MARANHAO</t>
-  </si>
-  <si>
-    <t>BANCADA DO PARA</t>
+    <t>BANCADA-DE ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-DO PARA</t>
   </si>
   <si>
     <t>CABO JUNIO AMARAL</t>
@@ -313,7 +313,7 @@
     <t>MCOM</t>
   </si>
   <si>
-    <t>MCOM (CD)</t>
+    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES </t>
   </si>
   <si>
     <t>MINISTERIO DA CIDADANIA</t>
@@ -337,7 +337,7 @@
     <t>POLICIA RODOVIARIA FEDERAL RO</t>
   </si>
   <si>
-    <t>SENADOR CONFUCIO MOURA</t>
+    <t>ADOR CONFUCIO MOURA</t>
   </si>
   <si>
     <t>SERGIO PETECAO</t>
@@ -878,198 +878,6 @@
   </si>
   <si>
     <t>Nota de Crédito</t>
-  </si>
-  <si>
-    <t>BANCADA-AL</t>
-  </si>
-  <si>
-    <t>BANCADA-MG</t>
-  </si>
-  <si>
-    <t>BANCADA-SP</t>
-  </si>
-  <si>
-    <t>BANCADA-ES</t>
-  </si>
-  <si>
-    <t>BANCADA-MA</t>
-  </si>
-  <si>
-    <t>BANCADA-PA</t>
-  </si>
-  <si>
-    <t>GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>POLICIA RODOVIARIA FEDERAL-AM</t>
-  </si>
-  <si>
-    <t>POLICIA RODOVIARIA FEDERAL-RO</t>
-  </si>
-  <si>
-    <t>CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>ULDURICO ALENCAR PINTO</t>
-  </si>
-  <si>
-    <t>DEP. GERALDO JUNIO DO AMARAL</t>
-  </si>
-  <si>
-    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
-  </si>
-  <si>
-    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
-  </si>
-  <si>
-    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
-  </si>
-  <si>
-    <t>DEP. ELIAS VAZ DE ANDRADE</t>
-  </si>
-  <si>
-    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
-  </si>
-  <si>
-    <t>DEP. FABIO DE ALMEIDA REIS</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIA CAROLINA PERES</t>
-  </si>
-  <si>
-    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
-  </si>
-  <si>
-    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
-  </si>
-  <si>
-    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
-  </si>
-  <si>
-    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
-  </si>
-  <si>
-    <t>DEP. JOSE NUNES SOARES</t>
-  </si>
-  <si>
-    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
-  </si>
-  <si>
-    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LEONARDO CUNHA DE BRITO</t>
-  </si>
-  <si>
-    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEP. LUCIANO CALDAS BIVAR</t>
-  </si>
-  <si>
-    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
-  </si>
-  <si>
-    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
-  </si>
-  <si>
-    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
-  </si>
-  <si>
-    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>SEN. CONFUCIO AIRES MOURA</t>
-  </si>
-  <si>
-    <t>SEN. SERGIO PETECAO</t>
-  </si>
-  <si>
-    <t>SEN. SORAYA THRONICKE</t>
-  </si>
-  <si>
-    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1535,12 +1343,6 @@
       <c r="V2" t="s">
         <v>283</v>
       </c>
-      <c r="W2" t="s">
-        <v>288</v>
-      </c>
-      <c r="X2" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1">
@@ -1573,12 +1375,6 @@
       <c r="V3" t="s">
         <v>283</v>
       </c>
-      <c r="W3" t="s">
-        <v>288</v>
-      </c>
-      <c r="X3" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1">
@@ -1611,12 +1407,6 @@
       <c r="V4" t="s">
         <v>283</v>
       </c>
-      <c r="W4" t="s">
-        <v>288</v>
-      </c>
-      <c r="X4" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1">
@@ -1649,12 +1439,6 @@
       <c r="V5" t="s">
         <v>283</v>
       </c>
-      <c r="W5" t="s">
-        <v>288</v>
-      </c>
-      <c r="X5" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1">
@@ -1687,12 +1471,6 @@
       <c r="V6" t="s">
         <v>283</v>
       </c>
-      <c r="W6" t="s">
-        <v>288</v>
-      </c>
-      <c r="X6" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1">
@@ -1725,12 +1503,6 @@
       <c r="V7" t="s">
         <v>283</v>
       </c>
-      <c r="W7" t="s">
-        <v>288</v>
-      </c>
-      <c r="X7" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1">
@@ -1763,12 +1535,6 @@
       <c r="V8" t="s">
         <v>283</v>
       </c>
-      <c r="W8" t="s">
-        <v>289</v>
-      </c>
-      <c r="X8" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1">
@@ -1801,12 +1567,6 @@
       <c r="V9" t="s">
         <v>283</v>
       </c>
-      <c r="W9" t="s">
-        <v>289</v>
-      </c>
-      <c r="X9" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1">
@@ -1839,12 +1599,6 @@
       <c r="V10" t="s">
         <v>283</v>
       </c>
-      <c r="W10" t="s">
-        <v>290</v>
-      </c>
-      <c r="X10" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1">
@@ -1877,12 +1631,6 @@
       <c r="V11" t="s">
         <v>283</v>
       </c>
-      <c r="W11" t="s">
-        <v>290</v>
-      </c>
-      <c r="X11" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
@@ -1915,12 +1663,6 @@
       <c r="V12" t="s">
         <v>283</v>
       </c>
-      <c r="W12" t="s">
-        <v>291</v>
-      </c>
-      <c r="X12" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1">
@@ -1953,12 +1695,6 @@
       <c r="V13" t="s">
         <v>283</v>
       </c>
-      <c r="W13" t="s">
-        <v>291</v>
-      </c>
-      <c r="X13" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1">
@@ -1991,12 +1727,6 @@
       <c r="V14" t="s">
         <v>283</v>
       </c>
-      <c r="W14" t="s">
-        <v>291</v>
-      </c>
-      <c r="X14" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1">
@@ -2029,12 +1759,6 @@
       <c r="V15" t="s">
         <v>283</v>
       </c>
-      <c r="W15" t="s">
-        <v>291</v>
-      </c>
-      <c r="X15" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1">
@@ -2067,14 +1791,8 @@
       <c r="V16" t="s">
         <v>283</v>
       </c>
-      <c r="W16" t="s">
-        <v>291</v>
-      </c>
-      <c r="X16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2105,14 +1823,8 @@
       <c r="V17" t="s">
         <v>283</v>
       </c>
-      <c r="W17" t="s">
-        <v>292</v>
-      </c>
-      <c r="X17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2143,14 +1855,8 @@
       <c r="V18" t="s">
         <v>283</v>
       </c>
-      <c r="W18" t="s">
-        <v>293</v>
-      </c>
-      <c r="X18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2181,14 +1887,8 @@
       <c r="V19" t="s">
         <v>283</v>
       </c>
-      <c r="W19" t="s">
-        <v>293</v>
-      </c>
-      <c r="X19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2219,14 +1919,8 @@
       <c r="V20" t="s">
         <v>283</v>
       </c>
-      <c r="W20" t="s">
-        <v>293</v>
-      </c>
-      <c r="X20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2257,14 +1951,8 @@
       <c r="V21" t="s">
         <v>283</v>
       </c>
-      <c r="W21" t="s">
-        <v>293</v>
-      </c>
-      <c r="X21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2295,14 +1983,8 @@
       <c r="V22" t="s">
         <v>284</v>
       </c>
-      <c r="W22" t="s">
-        <v>294</v>
-      </c>
-      <c r="X22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2333,14 +2015,8 @@
       <c r="V23" t="s">
         <v>284</v>
       </c>
-      <c r="W23" t="s">
-        <v>294</v>
-      </c>
-      <c r="X23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2371,14 +2047,8 @@
       <c r="V24" t="s">
         <v>284</v>
       </c>
-      <c r="W24" t="s">
-        <v>295</v>
-      </c>
-      <c r="X24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2409,14 +2079,8 @@
       <c r="V25" t="s">
         <v>284</v>
       </c>
-      <c r="W25" t="s">
-        <v>295</v>
-      </c>
-      <c r="X25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2447,14 +2111,8 @@
       <c r="V26" t="s">
         <v>284</v>
       </c>
-      <c r="W26" t="s">
-        <v>296</v>
-      </c>
-      <c r="X26" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2485,14 +2143,8 @@
       <c r="V27" t="s">
         <v>285</v>
       </c>
-      <c r="W27" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2523,14 +2175,8 @@
       <c r="V28" t="s">
         <v>284</v>
       </c>
-      <c r="W28" t="s">
-        <v>297</v>
-      </c>
-      <c r="X28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2561,14 +2207,8 @@
       <c r="V29" t="s">
         <v>284</v>
       </c>
-      <c r="W29" t="s">
-        <v>297</v>
-      </c>
-      <c r="X29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2599,14 +2239,8 @@
       <c r="V30" t="s">
         <v>284</v>
       </c>
-      <c r="W30" t="s">
-        <v>298</v>
-      </c>
-      <c r="X30" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2637,14 +2271,8 @@
       <c r="V31" t="s">
         <v>284</v>
       </c>
-      <c r="W31" t="s">
-        <v>298</v>
-      </c>
-      <c r="X31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2675,14 +2303,8 @@
       <c r="V32" t="s">
         <v>284</v>
       </c>
-      <c r="W32" t="s">
-        <v>299</v>
-      </c>
-      <c r="X32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2713,14 +2335,8 @@
       <c r="V33" t="s">
         <v>284</v>
       </c>
-      <c r="W33" t="s">
-        <v>299</v>
-      </c>
-      <c r="X33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2751,14 +2367,8 @@
       <c r="V34" t="s">
         <v>284</v>
       </c>
-      <c r="W34" t="s">
-        <v>300</v>
-      </c>
-      <c r="X34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2789,14 +2399,8 @@
       <c r="V35" t="s">
         <v>284</v>
       </c>
-      <c r="W35" t="s">
-        <v>300</v>
-      </c>
-      <c r="X35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2827,14 +2431,8 @@
       <c r="V36" t="s">
         <v>284</v>
       </c>
-      <c r="W36" t="s">
-        <v>301</v>
-      </c>
-      <c r="X36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2865,14 +2463,8 @@
       <c r="V37" t="s">
         <v>284</v>
       </c>
-      <c r="W37" t="s">
-        <v>302</v>
-      </c>
-      <c r="X37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2903,14 +2495,8 @@
       <c r="V38" t="s">
         <v>284</v>
       </c>
-      <c r="W38" t="s">
-        <v>302</v>
-      </c>
-      <c r="X38" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2941,14 +2527,8 @@
       <c r="V39" t="s">
         <v>284</v>
       </c>
-      <c r="W39" t="s">
-        <v>303</v>
-      </c>
-      <c r="X39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2979,14 +2559,8 @@
       <c r="V40" t="s">
         <v>284</v>
       </c>
-      <c r="W40" t="s">
-        <v>303</v>
-      </c>
-      <c r="X40" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3017,14 +2591,8 @@
       <c r="V41" t="s">
         <v>284</v>
       </c>
-      <c r="W41" t="s">
-        <v>304</v>
-      </c>
-      <c r="X41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3055,14 +2623,8 @@
       <c r="V42" t="s">
         <v>284</v>
       </c>
-      <c r="W42" t="s">
-        <v>304</v>
-      </c>
-      <c r="X42" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3093,14 +2655,8 @@
       <c r="V43" t="s">
         <v>284</v>
       </c>
-      <c r="W43" t="s">
-        <v>305</v>
-      </c>
-      <c r="X43" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3131,14 +2687,8 @@
       <c r="V44" t="s">
         <v>284</v>
       </c>
-      <c r="W44" t="s">
-        <v>305</v>
-      </c>
-      <c r="X44" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3169,14 +2719,8 @@
       <c r="V45" t="s">
         <v>284</v>
       </c>
-      <c r="W45" t="s">
-        <v>306</v>
-      </c>
-      <c r="X45" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3207,14 +2751,8 @@
       <c r="V46" t="s">
         <v>284</v>
       </c>
-      <c r="W46" t="s">
-        <v>306</v>
-      </c>
-      <c r="X46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3245,14 +2783,8 @@
       <c r="V47" t="s">
         <v>284</v>
       </c>
-      <c r="W47" t="s">
-        <v>307</v>
-      </c>
-      <c r="X47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3283,14 +2815,8 @@
       <c r="V48" t="s">
         <v>284</v>
       </c>
-      <c r="W48" t="s">
-        <v>308</v>
-      </c>
-      <c r="X48" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3321,14 +2847,8 @@
       <c r="V49" t="s">
         <v>284</v>
       </c>
-      <c r="W49" t="s">
-        <v>308</v>
-      </c>
-      <c r="X49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3359,14 +2879,8 @@
       <c r="V50" t="s">
         <v>284</v>
       </c>
-      <c r="W50" t="s">
-        <v>309</v>
-      </c>
-      <c r="X50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3397,14 +2911,8 @@
       <c r="V51" t="s">
         <v>284</v>
       </c>
-      <c r="W51" t="s">
-        <v>309</v>
-      </c>
-      <c r="X51" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3435,14 +2943,8 @@
       <c r="V52" t="s">
         <v>284</v>
       </c>
-      <c r="W52" t="s">
-        <v>310</v>
-      </c>
-      <c r="X52" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3473,14 +2975,8 @@
       <c r="V53" t="s">
         <v>284</v>
       </c>
-      <c r="W53" t="s">
-        <v>310</v>
-      </c>
-      <c r="X53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3511,14 +3007,8 @@
       <c r="V54" t="s">
         <v>284</v>
       </c>
-      <c r="W54" t="s">
-        <v>311</v>
-      </c>
-      <c r="X54" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3549,14 +3039,8 @@
       <c r="V55" t="s">
         <v>284</v>
       </c>
-      <c r="W55" t="s">
-        <v>311</v>
-      </c>
-      <c r="X55" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3587,14 +3071,8 @@
       <c r="V56" t="s">
         <v>284</v>
       </c>
-      <c r="W56" t="s">
-        <v>312</v>
-      </c>
-      <c r="X56" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3625,14 +3103,8 @@
       <c r="V57" t="s">
         <v>284</v>
       </c>
-      <c r="W57" t="s">
-        <v>312</v>
-      </c>
-      <c r="X57" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3663,14 +3135,8 @@
       <c r="V58" t="s">
         <v>284</v>
       </c>
-      <c r="W58" t="s">
-        <v>313</v>
-      </c>
-      <c r="X58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3701,14 +3167,8 @@
       <c r="V59" t="s">
         <v>284</v>
       </c>
-      <c r="W59" t="s">
-        <v>313</v>
-      </c>
-      <c r="X59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3739,14 +3199,8 @@
       <c r="V60" t="s">
         <v>284</v>
       </c>
-      <c r="W60" t="s">
-        <v>314</v>
-      </c>
-      <c r="X60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3777,14 +3231,8 @@
       <c r="V61" t="s">
         <v>284</v>
       </c>
-      <c r="W61" t="s">
-        <v>314</v>
-      </c>
-      <c r="X61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3815,14 +3263,8 @@
       <c r="V62" t="s">
         <v>284</v>
       </c>
-      <c r="W62" t="s">
-        <v>315</v>
-      </c>
-      <c r="X62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3853,14 +3295,8 @@
       <c r="V63" t="s">
         <v>284</v>
       </c>
-      <c r="W63" t="s">
-        <v>315</v>
-      </c>
-      <c r="X63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3891,14 +3327,8 @@
       <c r="V64" t="s">
         <v>284</v>
       </c>
-      <c r="W64" t="s">
-        <v>316</v>
-      </c>
-      <c r="X64" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3929,14 +3359,8 @@
       <c r="V65" t="s">
         <v>284</v>
       </c>
-      <c r="W65" t="s">
-        <v>316</v>
-      </c>
-      <c r="X65" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3967,14 +3391,8 @@
       <c r="V66" t="s">
         <v>284</v>
       </c>
-      <c r="W66" t="s">
-        <v>317</v>
-      </c>
-      <c r="X66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4005,14 +3423,8 @@
       <c r="V67" t="s">
         <v>284</v>
       </c>
-      <c r="W67" t="s">
-        <v>317</v>
-      </c>
-      <c r="X67" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4043,14 +3455,8 @@
       <c r="V68" t="s">
         <v>286</v>
       </c>
-      <c r="W68" t="s">
-        <v>111</v>
-      </c>
-      <c r="X68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4081,14 +3487,8 @@
       <c r="V69" t="s">
         <v>286</v>
       </c>
-      <c r="W69" t="s">
-        <v>111</v>
-      </c>
-      <c r="X69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4119,14 +3519,8 @@
       <c r="V70" t="s">
         <v>286</v>
       </c>
-      <c r="W70" t="s">
-        <v>111</v>
-      </c>
-      <c r="X70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4157,14 +3551,8 @@
       <c r="V71" t="s">
         <v>286</v>
       </c>
-      <c r="W71" t="s">
-        <v>111</v>
-      </c>
-      <c r="X71" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4195,14 +3583,8 @@
       <c r="V72" t="s">
         <v>286</v>
       </c>
-      <c r="W72" t="s">
-        <v>111</v>
-      </c>
-      <c r="X72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4233,14 +3615,8 @@
       <c r="V73" t="s">
         <v>286</v>
       </c>
-      <c r="W73" t="s">
-        <v>111</v>
-      </c>
-      <c r="X73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4268,14 +3644,8 @@
       <c r="V74" t="s">
         <v>285</v>
       </c>
-      <c r="W74" t="s">
-        <v>100</v>
-      </c>
-      <c r="X74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4306,14 +3676,8 @@
       <c r="V75" t="s">
         <v>285</v>
       </c>
-      <c r="W75" t="s">
-        <v>101</v>
-      </c>
-      <c r="X75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4344,14 +3708,8 @@
       <c r="V76" t="s">
         <v>285</v>
       </c>
-      <c r="W76" t="s">
-        <v>101</v>
-      </c>
-      <c r="X76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4382,14 +3740,8 @@
       <c r="V77" t="s">
         <v>285</v>
       </c>
-      <c r="W77" t="s">
-        <v>102</v>
-      </c>
-      <c r="X77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24">
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4420,14 +3772,8 @@
       <c r="V78" t="s">
         <v>285</v>
       </c>
-      <c r="W78" t="s">
-        <v>102</v>
-      </c>
-      <c r="X78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4458,14 +3804,8 @@
       <c r="V79" t="s">
         <v>285</v>
       </c>
-      <c r="W79" t="s">
-        <v>103</v>
-      </c>
-      <c r="X79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4496,14 +3836,8 @@
       <c r="V80" t="s">
         <v>284</v>
       </c>
-      <c r="W80" t="s">
-        <v>318</v>
-      </c>
-      <c r="X80" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4534,14 +3868,8 @@
       <c r="V81" t="s">
         <v>284</v>
       </c>
-      <c r="W81" t="s">
-        <v>318</v>
-      </c>
-      <c r="X81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4572,14 +3900,8 @@
       <c r="V82" t="s">
         <v>285</v>
       </c>
-      <c r="W82" t="s">
-        <v>319</v>
-      </c>
-      <c r="X82" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4607,14 +3929,8 @@
       <c r="V83" t="s">
         <v>285</v>
       </c>
-      <c r="W83" t="s">
-        <v>319</v>
-      </c>
-      <c r="X83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4645,14 +3961,8 @@
       <c r="V84" t="s">
         <v>285</v>
       </c>
-      <c r="W84" t="s">
-        <v>320</v>
-      </c>
-      <c r="X84" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4683,14 +3993,8 @@
       <c r="V85" t="s">
         <v>285</v>
       </c>
-      <c r="W85" t="s">
-        <v>320</v>
-      </c>
-      <c r="X85" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4721,14 +4025,8 @@
       <c r="V86" t="s">
         <v>284</v>
       </c>
-      <c r="W86" t="s">
-        <v>321</v>
-      </c>
-      <c r="X86" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4759,14 +4057,8 @@
       <c r="V87" t="s">
         <v>284</v>
       </c>
-      <c r="W87" t="s">
-        <v>321</v>
-      </c>
-      <c r="X87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4797,14 +4089,8 @@
       <c r="V88" t="s">
         <v>284</v>
       </c>
-      <c r="W88" t="s">
-        <v>108</v>
-      </c>
-      <c r="X88" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4835,14 +4121,8 @@
       <c r="V89" t="s">
         <v>284</v>
       </c>
-      <c r="W89" t="s">
-        <v>108</v>
-      </c>
-      <c r="X89" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4873,14 +4153,8 @@
       <c r="V90" t="s">
         <v>284</v>
       </c>
-      <c r="W90" t="s">
-        <v>109</v>
-      </c>
-      <c r="X90" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4911,14 +4185,8 @@
       <c r="V91" t="s">
         <v>284</v>
       </c>
-      <c r="W91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X91" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4949,14 +4217,8 @@
       <c r="V92" t="s">
         <v>284</v>
       </c>
-      <c r="W92" t="s">
-        <v>322</v>
-      </c>
-      <c r="X92" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4987,14 +4249,8 @@
       <c r="V93" t="s">
         <v>284</v>
       </c>
-      <c r="W93" t="s">
-        <v>322</v>
-      </c>
-      <c r="X93" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5022,14 +4278,8 @@
       <c r="V94" t="s">
         <v>287</v>
       </c>
-      <c r="W94" t="s">
-        <v>288</v>
-      </c>
-      <c r="X94" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5057,14 +4307,8 @@
       <c r="V95" t="s">
         <v>287</v>
       </c>
-      <c r="W95" t="s">
-        <v>288</v>
-      </c>
-      <c r="X95" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5092,14 +4336,8 @@
       <c r="V96" t="s">
         <v>287</v>
       </c>
-      <c r="W96" t="s">
-        <v>288</v>
-      </c>
-      <c r="X96" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5127,14 +4365,8 @@
       <c r="V97" t="s">
         <v>287</v>
       </c>
-      <c r="W97" t="s">
-        <v>289</v>
-      </c>
-      <c r="X97" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5162,14 +4394,8 @@
       <c r="V98" t="s">
         <v>287</v>
       </c>
-      <c r="W98" t="s">
-        <v>290</v>
-      </c>
-      <c r="X98" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5197,14 +4423,8 @@
       <c r="V99" t="s">
         <v>287</v>
       </c>
-      <c r="W99" t="s">
-        <v>291</v>
-      </c>
-      <c r="X99" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5232,14 +4452,8 @@
       <c r="V100" t="s">
         <v>287</v>
       </c>
-      <c r="W100" t="s">
-        <v>291</v>
-      </c>
-      <c r="X100" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5267,14 +4481,8 @@
       <c r="V101" t="s">
         <v>287</v>
       </c>
-      <c r="W101" t="s">
-        <v>291</v>
-      </c>
-      <c r="X101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5302,14 +4510,8 @@
       <c r="V102" t="s">
         <v>287</v>
       </c>
-      <c r="W102" t="s">
-        <v>292</v>
-      </c>
-      <c r="X102" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5337,14 +4539,8 @@
       <c r="V103" t="s">
         <v>287</v>
       </c>
-      <c r="W103" t="s">
-        <v>293</v>
-      </c>
-      <c r="X103" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24">
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5372,14 +4568,8 @@
       <c r="V104" t="s">
         <v>287</v>
       </c>
-      <c r="W104" t="s">
-        <v>293</v>
-      </c>
-      <c r="X104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24">
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5407,14 +4597,8 @@
       <c r="V105" t="s">
         <v>287</v>
       </c>
-      <c r="W105" t="s">
-        <v>294</v>
-      </c>
-      <c r="X105" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24">
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5442,14 +4626,8 @@
       <c r="V106" t="s">
         <v>287</v>
       </c>
-      <c r="W106" t="s">
-        <v>296</v>
-      </c>
-      <c r="X106" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24">
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5477,14 +4655,8 @@
       <c r="V107" t="s">
         <v>287</v>
       </c>
-      <c r="W107" t="s">
-        <v>297</v>
-      </c>
-      <c r="X107" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24">
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5512,14 +4684,8 @@
       <c r="V108" t="s">
         <v>287</v>
       </c>
-      <c r="W108" t="s">
-        <v>298</v>
-      </c>
-      <c r="X108" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24">
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5547,14 +4713,8 @@
       <c r="V109" t="s">
         <v>287</v>
       </c>
-      <c r="W109" t="s">
-        <v>299</v>
-      </c>
-      <c r="X109" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24">
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5582,14 +4742,8 @@
       <c r="V110" t="s">
         <v>287</v>
       </c>
-      <c r="W110" t="s">
-        <v>300</v>
-      </c>
-      <c r="X110" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24">
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5617,14 +4771,8 @@
       <c r="V111" t="s">
         <v>287</v>
       </c>
-      <c r="W111" t="s">
-        <v>301</v>
-      </c>
-      <c r="X111" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24">
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5652,14 +4800,8 @@
       <c r="V112" t="s">
         <v>287</v>
       </c>
-      <c r="W112" t="s">
-        <v>302</v>
-      </c>
-      <c r="X112" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5687,14 +4829,8 @@
       <c r="V113" t="s">
         <v>287</v>
       </c>
-      <c r="W113" t="s">
-        <v>303</v>
-      </c>
-      <c r="X113" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5722,14 +4858,8 @@
       <c r="V114" t="s">
         <v>287</v>
       </c>
-      <c r="W114" t="s">
-        <v>304</v>
-      </c>
-      <c r="X114" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5757,14 +4887,8 @@
       <c r="V115" t="s">
         <v>287</v>
       </c>
-      <c r="W115" t="s">
-        <v>304</v>
-      </c>
-      <c r="X115" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5792,14 +4916,8 @@
       <c r="V116" t="s">
         <v>287</v>
       </c>
-      <c r="W116" t="s">
-        <v>305</v>
-      </c>
-      <c r="X116" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5827,14 +4945,8 @@
       <c r="V117" t="s">
         <v>287</v>
       </c>
-      <c r="W117" t="s">
-        <v>306</v>
-      </c>
-      <c r="X117" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5862,14 +4974,8 @@
       <c r="V118" t="s">
         <v>287</v>
       </c>
-      <c r="W118" t="s">
-        <v>307</v>
-      </c>
-      <c r="X118" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5897,14 +5003,8 @@
       <c r="V119" t="s">
         <v>287</v>
       </c>
-      <c r="W119" t="s">
-        <v>309</v>
-      </c>
-      <c r="X119" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5932,14 +5032,8 @@
       <c r="V120" t="s">
         <v>287</v>
       </c>
-      <c r="W120" t="s">
-        <v>310</v>
-      </c>
-      <c r="X120" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5967,14 +5061,8 @@
       <c r="V121" t="s">
         <v>287</v>
       </c>
-      <c r="W121" t="s">
-        <v>311</v>
-      </c>
-      <c r="X121" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6002,14 +5090,8 @@
       <c r="V122" t="s">
         <v>287</v>
       </c>
-      <c r="W122" t="s">
-        <v>312</v>
-      </c>
-      <c r="X122" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24">
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6037,14 +5119,8 @@
       <c r="V123" t="s">
         <v>287</v>
       </c>
-      <c r="W123" t="s">
-        <v>313</v>
-      </c>
-      <c r="X123" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6072,14 +5148,8 @@
       <c r="V124" t="s">
         <v>287</v>
       </c>
-      <c r="W124" t="s">
-        <v>314</v>
-      </c>
-      <c r="X124" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6107,14 +5177,8 @@
       <c r="V125" t="s">
         <v>287</v>
       </c>
-      <c r="W125" t="s">
-        <v>315</v>
-      </c>
-      <c r="X125" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6142,14 +5206,8 @@
       <c r="V126" t="s">
         <v>287</v>
       </c>
-      <c r="W126" t="s">
-        <v>316</v>
-      </c>
-      <c r="X126" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6177,14 +5235,8 @@
       <c r="V127" t="s">
         <v>287</v>
       </c>
-      <c r="W127" t="s">
-        <v>317</v>
-      </c>
-      <c r="X127" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6212,14 +5264,8 @@
       <c r="V128" t="s">
         <v>287</v>
       </c>
-      <c r="W128" t="s">
-        <v>111</v>
-      </c>
-      <c r="X128" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6247,14 +5293,8 @@
       <c r="V129" t="s">
         <v>287</v>
       </c>
-      <c r="W129" t="s">
-        <v>111</v>
-      </c>
-      <c r="X129" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6282,14 +5322,8 @@
       <c r="V130" t="s">
         <v>287</v>
       </c>
-      <c r="W130" t="s">
-        <v>111</v>
-      </c>
-      <c r="X130" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24">
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6317,14 +5351,8 @@
       <c r="V131" t="s">
         <v>287</v>
       </c>
-      <c r="W131" t="s">
-        <v>101</v>
-      </c>
-      <c r="X131" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24">
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6352,14 +5380,8 @@
       <c r="V132" t="s">
         <v>287</v>
       </c>
-      <c r="W132" t="s">
-        <v>101</v>
-      </c>
-      <c r="X132" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24">
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6387,14 +5409,8 @@
       <c r="V133" t="s">
         <v>287</v>
       </c>
-      <c r="W133" t="s">
-        <v>102</v>
-      </c>
-      <c r="X133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24">
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6422,14 +5438,8 @@
       <c r="V134" t="s">
         <v>287</v>
       </c>
-      <c r="W134" t="s">
-        <v>103</v>
-      </c>
-      <c r="X134" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24">
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6457,14 +5467,8 @@
       <c r="V135" t="s">
         <v>287</v>
       </c>
-      <c r="W135" t="s">
-        <v>318</v>
-      </c>
-      <c r="X135" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24">
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6492,14 +5496,8 @@
       <c r="V136" t="s">
         <v>287</v>
       </c>
-      <c r="W136" t="s">
-        <v>320</v>
-      </c>
-      <c r="X136" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24">
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6527,14 +5525,8 @@
       <c r="V137" t="s">
         <v>287</v>
       </c>
-      <c r="W137" t="s">
-        <v>321</v>
-      </c>
-      <c r="X137" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24">
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6562,14 +5554,8 @@
       <c r="V138" t="s">
         <v>287</v>
       </c>
-      <c r="W138" t="s">
-        <v>108</v>
-      </c>
-      <c r="X138" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24">
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6597,14 +5583,8 @@
       <c r="V139" t="s">
         <v>287</v>
       </c>
-      <c r="W139" t="s">
-        <v>109</v>
-      </c>
-      <c r="X139" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24">
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6632,14 +5612,8 @@
       <c r="V140" t="s">
         <v>287</v>
       </c>
-      <c r="W140" t="s">
-        <v>322</v>
-      </c>
-      <c r="X140" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24">
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6667,14 +5641,8 @@
       <c r="V141" t="s">
         <v>287</v>
       </c>
-      <c r="W141" t="s">
-        <v>288</v>
-      </c>
-      <c r="X141" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24">
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6702,14 +5670,8 @@
       <c r="V142" t="s">
         <v>287</v>
       </c>
-      <c r="W142" t="s">
-        <v>288</v>
-      </c>
-      <c r="X142" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24">
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6737,14 +5699,8 @@
       <c r="V143" t="s">
         <v>287</v>
       </c>
-      <c r="W143" t="s">
-        <v>288</v>
-      </c>
-      <c r="X143" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24">
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6772,14 +5728,8 @@
       <c r="V144" t="s">
         <v>287</v>
       </c>
-      <c r="W144" t="s">
-        <v>289</v>
-      </c>
-      <c r="X144" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24">
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6807,14 +5757,8 @@
       <c r="V145" t="s">
         <v>287</v>
       </c>
-      <c r="W145" t="s">
-        <v>290</v>
-      </c>
-      <c r="X145" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24">
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6842,14 +5786,8 @@
       <c r="V146" t="s">
         <v>287</v>
       </c>
-      <c r="W146" t="s">
-        <v>291</v>
-      </c>
-      <c r="X146" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24">
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6877,14 +5815,8 @@
       <c r="V147" t="s">
         <v>287</v>
       </c>
-      <c r="W147" t="s">
-        <v>291</v>
-      </c>
-      <c r="X147" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24">
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6912,14 +5844,8 @@
       <c r="V148" t="s">
         <v>287</v>
       </c>
-      <c r="W148" t="s">
-        <v>293</v>
-      </c>
-      <c r="X148" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24">
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6947,14 +5873,8 @@
       <c r="V149" t="s">
         <v>287</v>
       </c>
-      <c r="W149" t="s">
-        <v>293</v>
-      </c>
-      <c r="X149" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24">
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6982,14 +5902,8 @@
       <c r="V150" t="s">
         <v>287</v>
       </c>
-      <c r="W150" t="s">
-        <v>297</v>
-      </c>
-      <c r="X150" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24">
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7017,14 +5931,8 @@
       <c r="V151" t="s">
         <v>287</v>
       </c>
-      <c r="W151" t="s">
-        <v>298</v>
-      </c>
-      <c r="X151" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24">
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7052,14 +5960,8 @@
       <c r="V152" t="s">
         <v>287</v>
       </c>
-      <c r="W152" t="s">
-        <v>299</v>
-      </c>
-      <c r="X152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24">
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7087,14 +5989,8 @@
       <c r="V153" t="s">
         <v>287</v>
       </c>
-      <c r="W153" t="s">
-        <v>302</v>
-      </c>
-      <c r="X153" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24">
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7122,14 +6018,8 @@
       <c r="V154" t="s">
         <v>287</v>
       </c>
-      <c r="W154" t="s">
-        <v>303</v>
-      </c>
-      <c r="X154" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24">
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7157,14 +6047,8 @@
       <c r="V155" t="s">
         <v>287</v>
       </c>
-      <c r="W155" t="s">
-        <v>305</v>
-      </c>
-      <c r="X155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24">
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7192,14 +6076,8 @@
       <c r="V156" t="s">
         <v>287</v>
       </c>
-      <c r="W156" t="s">
-        <v>309</v>
-      </c>
-      <c r="X156" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24">
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7227,14 +6105,8 @@
       <c r="V157" t="s">
         <v>287</v>
       </c>
-      <c r="W157" t="s">
-        <v>310</v>
-      </c>
-      <c r="X157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24">
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7262,14 +6134,8 @@
       <c r="V158" t="s">
         <v>287</v>
       </c>
-      <c r="W158" t="s">
-        <v>311</v>
-      </c>
-      <c r="X158" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24">
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7297,14 +6163,8 @@
       <c r="V159" t="s">
         <v>287</v>
       </c>
-      <c r="W159" t="s">
-        <v>312</v>
-      </c>
-      <c r="X159" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24">
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7332,14 +6192,8 @@
       <c r="V160" t="s">
         <v>287</v>
       </c>
-      <c r="W160" t="s">
-        <v>314</v>
-      </c>
-      <c r="X160" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24">
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7367,14 +6221,8 @@
       <c r="V161" t="s">
         <v>287</v>
       </c>
-      <c r="W161" t="s">
-        <v>315</v>
-      </c>
-      <c r="X161" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7402,14 +6250,8 @@
       <c r="V162" t="s">
         <v>287</v>
       </c>
-      <c r="W162" t="s">
-        <v>316</v>
-      </c>
-      <c r="X162" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24">
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7437,14 +6279,8 @@
       <c r="V163" t="s">
         <v>287</v>
       </c>
-      <c r="W163" t="s">
-        <v>317</v>
-      </c>
-      <c r="X163" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24">
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7472,14 +6308,8 @@
       <c r="V164" t="s">
         <v>287</v>
       </c>
-      <c r="W164" t="s">
-        <v>318</v>
-      </c>
-      <c r="X164" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24">
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7507,14 +6337,8 @@
       <c r="V165" t="s">
         <v>287</v>
       </c>
-      <c r="W165" t="s">
-        <v>108</v>
-      </c>
-      <c r="X165" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24">
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7542,14 +6366,8 @@
       <c r="V166" t="s">
         <v>287</v>
       </c>
-      <c r="W166" t="s">
-        <v>322</v>
-      </c>
-      <c r="X166" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24">
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7577,14 +6395,8 @@
       <c r="V167" t="s">
         <v>287</v>
       </c>
-      <c r="W167" t="s">
-        <v>109</v>
-      </c>
-      <c r="X167" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24">
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7612,14 +6424,8 @@
       <c r="V168" t="s">
         <v>287</v>
       </c>
-      <c r="W168" t="s">
-        <v>111</v>
-      </c>
-      <c r="X168" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24">
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7647,14 +6453,8 @@
       <c r="V169" t="s">
         <v>287</v>
       </c>
-      <c r="W169" t="s">
-        <v>294</v>
-      </c>
-      <c r="X169" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24">
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7682,14 +6482,8 @@
       <c r="V170" t="s">
         <v>287</v>
       </c>
-      <c r="W170" t="s">
-        <v>313</v>
-      </c>
-      <c r="X170" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24">
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7697,7 +6491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:22">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7705,7 +6499,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:22">
       <c r="A173" s="1">
         <v>171</v>
       </c>

--- a/PowerBI_Dataset/xlsx/df_cg.xlsx
+++ b/PowerBI_Dataset/xlsx/df_cg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="343">
   <si>
     <t>processo</t>
   </si>
@@ -217,22 +217,22 @@
     <t>53115.007232/2021-09</t>
   </si>
   <si>
-    <t>BANCADA-DE ALAGOAS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE MINAS GERAIS</t>
-  </si>
-  <si>
-    <t>BANCADA-DE SAO PAULO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO MARANHAO</t>
-  </si>
-  <si>
-    <t>BANCADA-DO PARA</t>
+    <t>BANCADA-ALAGOAS</t>
+  </si>
+  <si>
+    <t>BANCADA-MINAS GERAIS</t>
+  </si>
+  <si>
+    <t>BANCADA-SAO PAULO</t>
+  </si>
+  <si>
+    <t>BANCADA-ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>BANCADA-MARANHAO</t>
+  </si>
+  <si>
+    <t>BANCADA-PARA</t>
   </si>
   <si>
     <t>CABO JUNIO AMARAL</t>
@@ -313,7 +313,7 @@
     <t>MCOM</t>
   </si>
   <si>
-    <t xml:space="preserve">MINISTERIO DAS COMUNICACOES </t>
+    <t>MINISTERIO DAS COMUNICACOES</t>
   </si>
   <si>
     <t>MINISTERIO DA CIDADANIA</t>
@@ -349,9 +349,6 @@
     <t>ULDURICO JUNIOR</t>
   </si>
   <si>
-    <t>MINISTERIO DAS COMUNICACOES</t>
-  </si>
-  <si>
     <t>NAN</t>
   </si>
   <si>
@@ -878,6 +875,174 @@
   </si>
   <si>
     <t>Nota de Crédito</t>
+  </si>
+  <si>
+    <t>GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>POLICIA RODOVIARIA FEDERAL-AM</t>
+  </si>
+  <si>
+    <t>POLICIA RODOVIARIA FEDERAL-RO</t>
+  </si>
+  <si>
+    <t>ULDURICO ALENCAR PINTO</t>
+  </si>
+  <si>
+    <t>DEP. GERALDO JUNIO DO AMARAL</t>
+  </si>
+  <si>
+    <t>DEP. ALICE MAZZUCO PORTUGAL</t>
+  </si>
+  <si>
+    <t>DEP. CELSO SABINO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DEP. JOAO CHRISOSTOMO DE MOURA</t>
+  </si>
+  <si>
+    <t>DEP. DIMAS FABIANO TOLEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. EDNACE ALVES SILVESTRE HENRIQUE</t>
+  </si>
+  <si>
+    <t>DEP. ELIAS VAZ DE ANDRADE</t>
+  </si>
+  <si>
+    <t>DEP. EXPEDITO GONCALVES FERREIRA NETTO</t>
+  </si>
+  <si>
+    <t>DEP. FABIO DE ALMEIDA REIS</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIA CAROLINA PERES</t>
+  </si>
+  <si>
+    <t>DEP. FLAVIANO FLAVIO BAPTISTA DE MELO</t>
+  </si>
+  <si>
+    <t>DEP. ELIESER GIRAO MONTEIRO FILHO</t>
+  </si>
+  <si>
+    <t>DEP. JOAO INACIO RIBEIRO ROMA NETO</t>
+  </si>
+  <si>
+    <t>DEP. JOENIA BATISTA DE CARVALHO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE ANTONIO DOS SANTOS MEDEIROS</t>
+  </si>
+  <si>
+    <t>DEP. JOSE NUNES SOARES</t>
+  </si>
+  <si>
+    <t>DEP. JOSIVALDO DOS SANTOS MELO</t>
+  </si>
+  <si>
+    <t>DEP. JOSE LOURENCO BOMFIM JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LEONARDO CUNHA DE BRITO</t>
+  </si>
+  <si>
+    <t>DEP. LEUR ANTONIO DE BRITTO LOMANTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEP. LUCIANO CALDAS BIVAR</t>
+  </si>
+  <si>
+    <t>DEP. LUIS HENRIQUE DE OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>DEP. CYLMARA FERNANDES DA ROCHA GRIPP</t>
+  </si>
+  <si>
+    <t>DEP. MARX BELTRAO LIMA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>DEP. MARIA PERPETUA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>SEN. SERGIO PETECAO</t>
+  </si>
+  <si>
+    <t>SEN. SORAYA THRONICKE</t>
+  </si>
+  <si>
+    <t>DEP. ULDURICO ALENCAR PINTO</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1488,10 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>1917000</v>
@@ -1341,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1355,10 +1520,10 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>524400</v>
@@ -1373,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1387,10 +1552,10 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>608000</v>
@@ -1405,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1419,10 +1584,10 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5">
         <v>175000</v>
@@ -1437,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1451,10 +1616,10 @@
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6">
         <v>5225812</v>
@@ -1469,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1483,10 +1648,10 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1501,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1515,10 +1680,10 @@
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>13616356</v>
@@ -1533,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1547,10 +1712,10 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>5200000</v>
@@ -1565,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1579,10 +1744,10 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>1544762</v>
@@ -1597,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1611,10 +1776,10 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>695280</v>
@@ -1629,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1643,10 +1808,10 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12">
         <v>1500000</v>
@@ -1661,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1675,10 +1840,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13">
         <v>2245000</v>
@@ -1693,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1707,10 +1872,10 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14">
         <v>2752000</v>
@@ -1725,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1739,10 +1904,10 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>783000</v>
@@ -1757,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1771,10 +1936,10 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>840153.99</v>
@@ -1789,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1803,10 +1968,10 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17">
         <v>750000</v>
@@ -1821,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1835,10 +2000,10 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18">
         <v>490000</v>
@@ -1853,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1867,10 +2032,10 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19">
         <v>831400</v>
@@ -1885,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1899,10 +2064,10 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <v>184000</v>
@@ -1917,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1931,10 +2096,10 @@
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <v>312420</v>
@@ -1949,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1963,10 +2128,10 @@
         <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22">
         <v>207000</v>
@@ -1981,10 +2146,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W22" t="s">
+        <v>287</v>
+      </c>
+      <c r="X22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1995,10 +2166,10 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23">
         <v>93000</v>
@@ -2013,10 +2184,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W23" t="s">
+        <v>287</v>
+      </c>
+      <c r="X23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2027,10 +2204,10 @@
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>241500</v>
@@ -2045,10 +2222,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W24" t="s">
+        <v>288</v>
+      </c>
+      <c r="X24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2059,10 +2242,10 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25">
         <v>108500</v>
@@ -2077,10 +2260,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W25" t="s">
+        <v>288</v>
+      </c>
+      <c r="X25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2091,10 +2280,10 @@
         <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26">
         <v>215340</v>
@@ -2109,10 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W26" t="s">
+        <v>289</v>
+      </c>
+      <c r="X26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2123,10 +2318,10 @@
         <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27">
         <v>2238358.5</v>
@@ -2141,10 +2336,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2155,10 +2356,10 @@
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28">
         <v>138500</v>
@@ -2173,10 +2374,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W28" t="s">
+        <v>290</v>
+      </c>
+      <c r="X28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2187,10 +2394,10 @@
         <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29">
         <v>61500</v>
@@ -2205,10 +2412,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W29" t="s">
+        <v>290</v>
+      </c>
+      <c r="X29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2219,10 +2432,10 @@
         <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30">
         <v>207000</v>
@@ -2237,10 +2450,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2251,10 +2470,10 @@
         <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>93000</v>
@@ -2269,10 +2488,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2283,10 +2508,10 @@
         <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32">
         <v>208000</v>
@@ -2301,10 +2526,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2315,10 +2546,10 @@
         <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33">
         <v>92000</v>
@@ -2333,10 +2564,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2347,10 +2584,10 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34">
         <v>400000</v>
@@ -2365,10 +2602,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W34" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2379,10 +2622,10 @@
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35">
         <v>360000</v>
@@ -2397,10 +2640,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W35" t="s">
+        <v>293</v>
+      </c>
+      <c r="X35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2411,10 +2660,10 @@
         <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36">
         <v>339993</v>
@@ -2429,10 +2678,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W36" t="s">
+        <v>294</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2443,10 +2698,10 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F37">
         <v>108120</v>
@@ -2461,10 +2716,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W37" t="s">
+        <v>295</v>
+      </c>
+      <c r="X37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2475,10 +2736,10 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F38">
         <v>41880</v>
@@ -2493,10 +2754,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2507,10 +2774,10 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39">
         <v>1131456</v>
@@ -2525,10 +2792,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W39" t="s">
+        <v>296</v>
+      </c>
+      <c r="X39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2539,10 +2812,10 @@
         <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F40">
         <v>368544</v>
@@ -2557,10 +2830,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W40" t="s">
+        <v>296</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2571,10 +2850,10 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F41">
         <v>66000</v>
@@ -2589,10 +2868,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W41" t="s">
+        <v>297</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2603,10 +2888,10 @@
         <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42">
         <v>561190</v>
@@ -2621,10 +2906,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W42" t="s">
+        <v>297</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2635,10 +2926,10 @@
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43">
         <v>207000</v>
@@ -2653,10 +2944,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W43" t="s">
+        <v>298</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2667,10 +2964,10 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44">
         <v>93000</v>
@@ -2685,10 +2982,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W44" t="s">
+        <v>298</v>
+      </c>
+      <c r="X44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2699,10 +3002,10 @@
         <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45">
         <v>590000</v>
@@ -2717,10 +3020,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W45" t="s">
+        <v>299</v>
+      </c>
+      <c r="X45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2731,10 +3040,10 @@
         <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46">
         <v>439986</v>
@@ -2749,10 +3058,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W46" t="s">
+        <v>299</v>
+      </c>
+      <c r="X46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2763,10 +3078,10 @@
         <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47">
         <v>440000</v>
@@ -2781,10 +3096,16 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W47" t="s">
+        <v>300</v>
+      </c>
+      <c r="X47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2795,10 +3116,10 @@
         <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F48">
         <v>390000</v>
@@ -2813,10 +3134,16 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W48" t="s">
+        <v>301</v>
+      </c>
+      <c r="X48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2827,10 +3154,10 @@
         <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>269340</v>
@@ -2845,10 +3172,16 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W49" t="s">
+        <v>301</v>
+      </c>
+      <c r="X49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2859,10 +3192,10 @@
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F50">
         <v>207000</v>
@@ -2877,10 +3210,16 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W50" t="s">
+        <v>302</v>
+      </c>
+      <c r="X50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2891,10 +3230,10 @@
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F51">
         <v>93000</v>
@@ -2909,10 +3248,16 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W51" t="s">
+        <v>302</v>
+      </c>
+      <c r="X51" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2923,10 +3268,10 @@
         <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F52">
         <v>102000</v>
@@ -2941,10 +3286,16 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W52" t="s">
+        <v>303</v>
+      </c>
+      <c r="X52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2955,10 +3306,10 @@
         <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F53">
         <v>48000</v>
@@ -2973,10 +3324,16 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W53" t="s">
+        <v>303</v>
+      </c>
+      <c r="X53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2987,10 +3344,10 @@
         <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F54">
         <v>345000</v>
@@ -3005,10 +3362,16 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W54" t="s">
+        <v>304</v>
+      </c>
+      <c r="X54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3019,10 +3382,10 @@
         <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F55">
         <v>155000</v>
@@ -3037,10 +3400,16 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W55" t="s">
+        <v>304</v>
+      </c>
+      <c r="X55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3051,10 +3420,10 @@
         <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F56">
         <v>430000</v>
@@ -3069,10 +3438,16 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W56" t="s">
+        <v>305</v>
+      </c>
+      <c r="X56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3083,10 +3458,10 @@
         <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F57">
         <v>170000</v>
@@ -3101,10 +3476,16 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W57" t="s">
+        <v>305</v>
+      </c>
+      <c r="X57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3115,10 +3496,10 @@
         <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F58">
         <v>72000</v>
@@ -3133,10 +3514,16 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W58" t="s">
+        <v>306</v>
+      </c>
+      <c r="X58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3147,10 +3534,10 @@
         <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F59">
         <v>28000</v>
@@ -3165,10 +3552,16 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W59" t="s">
+        <v>306</v>
+      </c>
+      <c r="X59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3179,10 +3572,10 @@
         <v>94</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F60">
         <v>207000</v>
@@ -3197,10 +3590,16 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W60" t="s">
+        <v>307</v>
+      </c>
+      <c r="X60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3211,10 +3610,10 @@
         <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61">
         <v>93000</v>
@@ -3229,10 +3628,16 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W61" t="s">
+        <v>307</v>
+      </c>
+      <c r="X61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3243,10 +3648,10 @@
         <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62">
         <v>207000</v>
@@ -3261,10 +3666,16 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W62" t="s">
+        <v>308</v>
+      </c>
+      <c r="X62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3275,10 +3686,10 @@
         <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63">
         <v>93000</v>
@@ -3293,10 +3704,16 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W63" t="s">
+        <v>308</v>
+      </c>
+      <c r="X63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3307,10 +3724,10 @@
         <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F64">
         <v>430000</v>
@@ -3325,10 +3742,16 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W64" t="s">
+        <v>309</v>
+      </c>
+      <c r="X64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3339,10 +3762,10 @@
         <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65">
         <v>170000</v>
@@ -3357,10 +3780,16 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W65" t="s">
+        <v>309</v>
+      </c>
+      <c r="X65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3371,10 +3800,10 @@
         <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F66">
         <v>207000</v>
@@ -3389,10 +3818,16 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W66" t="s">
+        <v>310</v>
+      </c>
+      <c r="X66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3403,10 +3838,10 @@
         <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67">
         <v>93000</v>
@@ -3421,10 +3856,16 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W67" t="s">
+        <v>310</v>
+      </c>
+      <c r="X67" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3435,10 +3876,10 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F68">
         <v>34652118</v>
@@ -3453,10 +3894,16 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W68" t="s">
+        <v>99</v>
+      </c>
+      <c r="X68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3467,10 +3914,10 @@
         <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F69">
         <v>3688000</v>
@@ -3485,10 +3932,16 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W69" t="s">
+        <v>99</v>
+      </c>
+      <c r="X69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3499,10 +3952,10 @@
         <v>98</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F70">
         <v>10000000</v>
@@ -3517,10 +3970,16 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W70" t="s">
+        <v>99</v>
+      </c>
+      <c r="X70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3531,10 +3990,10 @@
         <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F71">
         <v>500000</v>
@@ -3549,10 +4008,16 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W71" t="s">
+        <v>99</v>
+      </c>
+      <c r="X71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3563,10 +4028,10 @@
         <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F72">
         <v>324000</v>
@@ -3581,10 +4046,16 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W72" t="s">
+        <v>99</v>
+      </c>
+      <c r="X72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3595,10 +4066,10 @@
         <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F73">
         <v>176000</v>
@@ -3613,10 +4084,16 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>285</v>
+      </c>
+      <c r="W73" t="s">
+        <v>99</v>
+      </c>
+      <c r="X73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3627,7 +4104,7 @@
         <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F74">
         <v>600000</v>
@@ -3642,10 +4119,16 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W74" t="s">
+        <v>100</v>
+      </c>
+      <c r="X74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3656,10 +4139,10 @@
         <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F75">
         <v>56319000</v>
@@ -3674,10 +4157,16 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W75" t="s">
+        <v>101</v>
+      </c>
+      <c r="X75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3688,10 +4177,10 @@
         <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F76">
         <v>3681000</v>
@@ -3706,10 +4195,16 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W76" t="s">
+        <v>101</v>
+      </c>
+      <c r="X76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3720,10 +4215,10 @@
         <v>102</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F77">
         <v>2970000</v>
@@ -3738,10 +4233,16 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W77" t="s">
+        <v>102</v>
+      </c>
+      <c r="X77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3752,10 +4253,10 @@
         <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F78">
         <v>1680000</v>
@@ -3770,10 +4271,16 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W78" t="s">
+        <v>102</v>
+      </c>
+      <c r="X78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3784,10 +4291,10 @@
         <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F79">
         <v>107800</v>
@@ -3802,10 +4309,16 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W79" t="s">
+        <v>103</v>
+      </c>
+      <c r="X79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3816,10 +4329,10 @@
         <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F80">
         <v>414000</v>
@@ -3834,10 +4347,16 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W80" t="s">
+        <v>311</v>
+      </c>
+      <c r="X80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3848,10 +4367,10 @@
         <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F81">
         <v>192996</v>
@@ -3866,10 +4385,16 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W81" t="s">
+        <v>311</v>
+      </c>
+      <c r="X81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3880,10 +4405,10 @@
         <v>105</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F82">
         <v>25200</v>
@@ -3898,10 +4423,16 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W82" t="s">
+        <v>312</v>
+      </c>
+      <c r="X82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3909,10 +4440,10 @@
         <v>105</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F83">
         <v>8400</v>
@@ -3927,10 +4458,16 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W83" t="s">
+        <v>312</v>
+      </c>
+      <c r="X83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3941,10 +4478,10 @@
         <v>106</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F84">
         <v>92800</v>
@@ -3959,10 +4496,16 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W84" t="s">
+        <v>313</v>
+      </c>
+      <c r="X84" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3973,10 +4516,10 @@
         <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F85">
         <v>46400</v>
@@ -3991,10 +4534,16 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
+        <v>284</v>
+      </c>
+      <c r="W85" t="s">
+        <v>313</v>
+      </c>
+      <c r="X85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4005,10 +4554,10 @@
         <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F86">
         <v>350000</v>
@@ -4023,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4037,10 +4586,10 @@
         <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F87">
         <v>700000</v>
@@ -4055,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4069,10 +4618,10 @@
         <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F88">
         <v>284986</v>
@@ -4087,10 +4636,16 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W88" t="s">
+        <v>108</v>
+      </c>
+      <c r="X88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4101,10 +4656,10 @@
         <v>108</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F89">
         <v>132614</v>
@@ -4119,10 +4674,16 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W89" t="s">
+        <v>108</v>
+      </c>
+      <c r="X89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4133,10 +4694,10 @@
         <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F90">
         <v>345000</v>
@@ -4151,10 +4712,16 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W90" t="s">
+        <v>109</v>
+      </c>
+      <c r="X90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4165,10 +4732,10 @@
         <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F91">
         <v>155000</v>
@@ -4183,10 +4750,16 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X91" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4197,10 +4770,10 @@
         <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F92">
         <v>309000</v>
@@ -4215,10 +4788,16 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W92" t="s">
+        <v>314</v>
+      </c>
+      <c r="X92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4229,10 +4808,10 @@
         <v>110</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F93">
         <v>141000</v>
@@ -4247,10 +4826,16 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
+        <v>283</v>
+      </c>
+      <c r="W93" t="s">
+        <v>314</v>
+      </c>
+      <c r="X93" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4258,10 +4843,10 @@
         <v>67</v>
       </c>
       <c r="D94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F94">
         <v>1801472.7</v>
@@ -4276,10 +4861,10 @@
         <v>107.2193870942727</v>
       </c>
       <c r="V94" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4287,10 +4872,10 @@
         <v>67</v>
       </c>
       <c r="D95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F95">
         <v>524400</v>
@@ -4305,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4316,10 +4901,10 @@
         <v>67</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F96">
         <v>5225812</v>
@@ -4334,10 +4919,10 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4345,10 +4930,10 @@
         <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F97">
         <v>13278264.4</v>
@@ -4363,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4374,10 +4959,10 @@
         <v>69</v>
       </c>
       <c r="D98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F98">
         <v>1544762</v>
@@ -4392,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4403,10 +4988,10 @@
         <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F99">
         <v>1411014.44</v>
@@ -4421,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4432,10 +5017,10 @@
         <v>70</v>
       </c>
       <c r="D100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F100">
         <v>2245000</v>
@@ -4450,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4461,10 +5046,10 @@
         <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F101">
         <v>2752000</v>
@@ -4479,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4490,10 +5075,10 @@
         <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F102">
         <v>750000</v>
@@ -4508,10 +5093,10 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4519,10 +5104,10 @@
         <v>72</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F103">
         <v>490000</v>
@@ -4537,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4548,10 +5133,10 @@
         <v>72</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F104">
         <v>831400</v>
@@ -4566,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4577,10 +5162,10 @@
         <v>73</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F105">
         <v>207000</v>
@@ -4595,10 +5180,16 @@
         <v>0</v>
       </c>
       <c r="V105" t="s">
+        <v>286</v>
+      </c>
+      <c r="W105" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="X105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4606,10 +5197,10 @@
         <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F106">
         <v>97197.71000000001</v>
@@ -4624,10 +5215,16 @@
         <v>0</v>
       </c>
       <c r="V106" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W106" t="s">
+        <v>289</v>
+      </c>
+      <c r="X106" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4635,10 +5232,10 @@
         <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F107">
         <v>138500</v>
@@ -4653,10 +5250,16 @@
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W107" t="s">
+        <v>290</v>
+      </c>
+      <c r="X107" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4664,10 +5267,10 @@
         <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F108">
         <v>207000</v>
@@ -4682,10 +5285,16 @@
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W108" t="s">
+        <v>291</v>
+      </c>
+      <c r="X108" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4693,10 +5302,10 @@
         <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F109">
         <v>208000</v>
@@ -4711,10 +5320,16 @@
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W109" t="s">
+        <v>292</v>
+      </c>
+      <c r="X109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4722,10 +5337,10 @@
         <v>80</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F110">
         <v>400000</v>
@@ -4740,10 +5355,16 @@
         <v>0</v>
       </c>
       <c r="V110" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W110" t="s">
+        <v>293</v>
+      </c>
+      <c r="X110" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4751,10 +5372,10 @@
         <v>81</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F111">
         <v>281339.24</v>
@@ -4769,10 +5390,16 @@
         <v>0</v>
       </c>
       <c r="V111" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W111" t="s">
+        <v>294</v>
+      </c>
+      <c r="X111" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4780,10 +5407,10 @@
         <v>82</v>
       </c>
       <c r="D112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E112" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F112">
         <v>81587.97</v>
@@ -4798,10 +5425,16 @@
         <v>0</v>
       </c>
       <c r="V112" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W112" t="s">
+        <v>295</v>
+      </c>
+      <c r="X112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4809,10 +5442,10 @@
         <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F113">
         <v>881417.6899999999</v>
@@ -4827,10 +5460,16 @@
         <v>0</v>
       </c>
       <c r="V113" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W113" t="s">
+        <v>296</v>
+      </c>
+      <c r="X113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4838,10 +5477,10 @@
         <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F114">
         <v>66000</v>
@@ -4856,10 +5495,16 @@
         <v>0</v>
       </c>
       <c r="V114" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W114" t="s">
+        <v>297</v>
+      </c>
+      <c r="X114" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4867,10 +5512,10 @@
         <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F115">
         <v>502796.02</v>
@@ -4885,10 +5530,16 @@
         <v>0</v>
       </c>
       <c r="V115" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W115" t="s">
+        <v>297</v>
+      </c>
+      <c r="X115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4896,10 +5547,10 @@
         <v>85</v>
       </c>
       <c r="D116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F116">
         <v>207000</v>
@@ -4914,10 +5565,16 @@
         <v>0</v>
       </c>
       <c r="V116" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W116" t="s">
+        <v>298</v>
+      </c>
+      <c r="X116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4925,10 +5582,10 @@
         <v>86</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F117">
         <v>72167.81</v>
@@ -4943,10 +5600,16 @@
         <v>0</v>
       </c>
       <c r="V117" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W117" t="s">
+        <v>299</v>
+      </c>
+      <c r="X117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4954,10 +5617,10 @@
         <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F118">
         <v>9098.42</v>
@@ -4972,10 +5635,16 @@
         <v>0</v>
       </c>
       <c r="V118" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W118" t="s">
+        <v>300</v>
+      </c>
+      <c r="X118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4983,10 +5652,10 @@
         <v>89</v>
       </c>
       <c r="D119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F119">
         <v>207000</v>
@@ -5001,10 +5670,16 @@
         <v>0</v>
       </c>
       <c r="V119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W119" t="s">
+        <v>302</v>
+      </c>
+      <c r="X119" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5012,10 +5687,10 @@
         <v>90</v>
       </c>
       <c r="D120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F120">
         <v>102000</v>
@@ -5030,10 +5705,16 @@
         <v>0</v>
       </c>
       <c r="V120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W120" t="s">
+        <v>303</v>
+      </c>
+      <c r="X120" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5041,10 +5722,10 @@
         <v>91</v>
       </c>
       <c r="D121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F121">
         <v>345000</v>
@@ -5059,10 +5740,16 @@
         <v>0</v>
       </c>
       <c r="V121" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W121" t="s">
+        <v>304</v>
+      </c>
+      <c r="X121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5070,10 +5757,10 @@
         <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F122">
         <v>430000</v>
@@ -5088,10 +5775,16 @@
         <v>0</v>
       </c>
       <c r="V122" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W122" t="s">
+        <v>305</v>
+      </c>
+      <c r="X122" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5099,10 +5792,10 @@
         <v>93</v>
       </c>
       <c r="D123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F123">
         <v>66102.3</v>
@@ -5117,10 +5810,16 @@
         <v>0</v>
       </c>
       <c r="V123" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W123" t="s">
+        <v>306</v>
+      </c>
+      <c r="X123" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5128,10 +5827,10 @@
         <v>94</v>
       </c>
       <c r="D124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E124" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F124">
         <v>3253.19</v>
@@ -5146,10 +5845,16 @@
         <v>0</v>
       </c>
       <c r="V124" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W124" t="s">
+        <v>307</v>
+      </c>
+      <c r="X124" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5157,10 +5862,10 @@
         <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F125">
         <v>207000</v>
@@ -5175,10 +5880,16 @@
         <v>0</v>
       </c>
       <c r="V125" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W125" t="s">
+        <v>308</v>
+      </c>
+      <c r="X125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5186,10 +5897,10 @@
         <v>96</v>
       </c>
       <c r="D126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F126">
         <v>408375.1</v>
@@ -5204,10 +5915,16 @@
         <v>0</v>
       </c>
       <c r="V126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W126" t="s">
+        <v>309</v>
+      </c>
+      <c r="X126" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5215,10 +5932,10 @@
         <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F127">
         <v>207000</v>
@@ -5233,21 +5950,27 @@
         <v>0</v>
       </c>
       <c r="V127" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W127" t="s">
+        <v>310</v>
+      </c>
+      <c r="X127" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F128">
         <v>15392427.09</v>
@@ -5262,21 +5985,27 @@
         <v>0</v>
       </c>
       <c r="V128" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W128" t="s">
+        <v>99</v>
+      </c>
+      <c r="X128" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F129">
         <v>3688000</v>
@@ -5291,21 +6020,27 @@
         <v>0</v>
       </c>
       <c r="V129" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W129" t="s">
+        <v>99</v>
+      </c>
+      <c r="X129" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E130" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F130">
         <v>10000000</v>
@@ -5320,10 +6055,16 @@
         <v>0</v>
       </c>
       <c r="V130" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W130" t="s">
+        <v>99</v>
+      </c>
+      <c r="X130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5331,10 +6072,10 @@
         <v>101</v>
       </c>
       <c r="D131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F131">
         <v>16863198</v>
@@ -5349,10 +6090,16 @@
         <v>0</v>
       </c>
       <c r="V131" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W131" t="s">
+        <v>101</v>
+      </c>
+      <c r="X131" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5360,10 +6107,10 @@
         <v>101</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F132">
         <v>3681000</v>
@@ -5378,10 +6125,16 @@
         <v>0</v>
       </c>
       <c r="V132" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W132" t="s">
+        <v>101</v>
+      </c>
+      <c r="X132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5389,10 +6142,10 @@
         <v>102</v>
       </c>
       <c r="D133" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F133">
         <v>625930.5</v>
@@ -5407,10 +6160,16 @@
         <v>0</v>
       </c>
       <c r="V133" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W133" t="s">
+        <v>102</v>
+      </c>
+      <c r="X133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5418,10 +6177,10 @@
         <v>103</v>
       </c>
       <c r="D134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F134">
         <v>107800</v>
@@ -5436,10 +6195,16 @@
         <v>0</v>
       </c>
       <c r="V134" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W134" t="s">
+        <v>103</v>
+      </c>
+      <c r="X134" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5447,10 +6212,10 @@
         <v>104</v>
       </c>
       <c r="D135" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F135">
         <v>414000</v>
@@ -5465,10 +6230,16 @@
         <v>0</v>
       </c>
       <c r="V135" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W135" t="s">
+        <v>311</v>
+      </c>
+      <c r="X135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5476,10 +6247,10 @@
         <v>106</v>
       </c>
       <c r="D136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F136">
         <v>46400</v>
@@ -5494,10 +6265,16 @@
         <v>0</v>
       </c>
       <c r="V136" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W136" t="s">
+        <v>313</v>
+      </c>
+      <c r="X136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5505,10 +6282,10 @@
         <v>107</v>
       </c>
       <c r="D137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F137">
         <v>343031.28</v>
@@ -5523,10 +6300,10 @@
         <v>0</v>
       </c>
       <c r="V137" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5534,10 +6311,10 @@
         <v>108</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F138">
         <v>284986</v>
@@ -5552,10 +6329,16 @@
         <v>0</v>
       </c>
       <c r="V138" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W138" t="s">
+        <v>108</v>
+      </c>
+      <c r="X138" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5563,10 +6346,10 @@
         <v>109</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F139">
         <v>345000</v>
@@ -5581,10 +6364,16 @@
         <v>0</v>
       </c>
       <c r="V139" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W139" t="s">
+        <v>109</v>
+      </c>
+      <c r="X139" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5592,10 +6381,10 @@
         <v>110</v>
       </c>
       <c r="D140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E140" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F140">
         <v>309000</v>
@@ -5610,10 +6399,16 @@
         <v>0</v>
       </c>
       <c r="V140" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W140" t="s">
+        <v>314</v>
+      </c>
+      <c r="X140" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5621,10 +6416,10 @@
         <v>67</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F141">
         <v>608000</v>
@@ -5639,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="V141" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5650,10 +6445,10 @@
         <v>67</v>
       </c>
       <c r="D142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F142">
         <v>175000</v>
@@ -5668,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="V142" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5679,10 +6474,10 @@
         <v>67</v>
       </c>
       <c r="D143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F143">
         <v>750000</v>
@@ -5697,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="V143" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5708,10 +6503,10 @@
         <v>68</v>
       </c>
       <c r="D144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F144">
         <v>5200000</v>
@@ -5726,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="V144" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5737,10 +6532,10 @@
         <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F145">
         <v>695280</v>
@@ -5755,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="V145" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5766,10 +6561,10 @@
         <v>70</v>
       </c>
       <c r="D146" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F146">
         <v>783000</v>
@@ -5784,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="V146" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5795,10 +6590,10 @@
         <v>70</v>
       </c>
       <c r="D147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F147">
         <v>840153.99</v>
@@ -5813,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="V147" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5824,10 +6619,10 @@
         <v>72</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F148">
         <v>184000</v>
@@ -5842,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="V148" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5853,10 +6648,10 @@
         <v>72</v>
       </c>
       <c r="D149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F149">
         <v>312420</v>
@@ -5871,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="V149" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5882,10 +6677,10 @@
         <v>77</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F150">
         <v>61500</v>
@@ -5900,10 +6695,16 @@
         <v>0</v>
       </c>
       <c r="V150" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W150" t="s">
+        <v>290</v>
+      </c>
+      <c r="X150" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5911,10 +6712,10 @@
         <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F151">
         <v>93000</v>
@@ -5929,10 +6730,16 @@
         <v>0</v>
       </c>
       <c r="V151" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W151" t="s">
+        <v>291</v>
+      </c>
+      <c r="X151" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5940,10 +6747,10 @@
         <v>79</v>
       </c>
       <c r="D152" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F152">
         <v>92000</v>
@@ -5958,10 +6765,16 @@
         <v>0</v>
       </c>
       <c r="V152" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W152" t="s">
+        <v>292</v>
+      </c>
+      <c r="X152" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5969,10 +6782,10 @@
         <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F153">
         <v>41880</v>
@@ -5987,10 +6800,16 @@
         <v>0</v>
       </c>
       <c r="V153" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W153" t="s">
+        <v>295</v>
+      </c>
+      <c r="X153" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5998,10 +6817,10 @@
         <v>83</v>
       </c>
       <c r="D154" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F154">
         <v>368544</v>
@@ -6016,10 +6835,16 @@
         <v>0</v>
       </c>
       <c r="V154" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W154" t="s">
+        <v>296</v>
+      </c>
+      <c r="X154" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6027,10 +6852,10 @@
         <v>85</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E155" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F155">
         <v>93000</v>
@@ -6045,10 +6870,16 @@
         <v>0</v>
       </c>
       <c r="V155" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W155" t="s">
+        <v>298</v>
+      </c>
+      <c r="X155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6056,10 +6887,10 @@
         <v>89</v>
       </c>
       <c r="D156" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E156" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F156">
         <v>93000</v>
@@ -6074,10 +6905,16 @@
         <v>0</v>
       </c>
       <c r="V156" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W156" t="s">
+        <v>302</v>
+      </c>
+      <c r="X156" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6085,10 +6922,10 @@
         <v>90</v>
       </c>
       <c r="D157" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F157">
         <v>48000</v>
@@ -6103,10 +6940,16 @@
         <v>0</v>
       </c>
       <c r="V157" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W157" t="s">
+        <v>303</v>
+      </c>
+      <c r="X157" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6114,10 +6957,10 @@
         <v>91</v>
       </c>
       <c r="D158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F158">
         <v>155000</v>
@@ -6132,10 +6975,16 @@
         <v>0</v>
       </c>
       <c r="V158" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W158" t="s">
+        <v>304</v>
+      </c>
+      <c r="X158" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6143,10 +6992,10 @@
         <v>92</v>
       </c>
       <c r="D159" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F159">
         <v>170000</v>
@@ -6161,10 +7010,16 @@
         <v>0</v>
       </c>
       <c r="V159" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W159" t="s">
+        <v>305</v>
+      </c>
+      <c r="X159" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6172,10 +7027,10 @@
         <v>94</v>
       </c>
       <c r="D160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E160" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F160">
         <v>93000</v>
@@ -6190,10 +7045,16 @@
         <v>0</v>
       </c>
       <c r="V160" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W160" t="s">
+        <v>307</v>
+      </c>
+      <c r="X160" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6201,10 +7062,10 @@
         <v>95</v>
       </c>
       <c r="D161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E161" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F161">
         <v>93000</v>
@@ -6219,10 +7080,16 @@
         <v>0</v>
       </c>
       <c r="V161" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W161" t="s">
+        <v>308</v>
+      </c>
+      <c r="X161" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6230,10 +7097,10 @@
         <v>96</v>
       </c>
       <c r="D162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E162" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F162">
         <v>170000</v>
@@ -6248,10 +7115,16 @@
         <v>0</v>
       </c>
       <c r="V162" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W162" t="s">
+        <v>309</v>
+      </c>
+      <c r="X162" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6259,10 +7132,10 @@
         <v>97</v>
       </c>
       <c r="D163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F163">
         <v>93000</v>
@@ -6277,10 +7150,16 @@
         <v>0</v>
       </c>
       <c r="V163" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W163" t="s">
+        <v>310</v>
+      </c>
+      <c r="X163" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6288,10 +7167,10 @@
         <v>104</v>
       </c>
       <c r="D164" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E164" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F164">
         <v>192996</v>
@@ -6306,10 +7185,16 @@
         <v>0</v>
       </c>
       <c r="V164" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W164" t="s">
+        <v>311</v>
+      </c>
+      <c r="X164" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6317,10 +7202,10 @@
         <v>108</v>
       </c>
       <c r="D165" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F165">
         <v>132614</v>
@@ -6335,10 +7220,16 @@
         <v>0</v>
       </c>
       <c r="V165" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W165" t="s">
+        <v>108</v>
+      </c>
+      <c r="X165" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6346,10 +7237,10 @@
         <v>110</v>
       </c>
       <c r="D166" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F166">
         <v>141000</v>
@@ -6364,10 +7255,16 @@
         <v>0</v>
       </c>
       <c r="V166" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W166" t="s">
+        <v>314</v>
+      </c>
+      <c r="X166" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6375,10 +7272,10 @@
         <v>109</v>
       </c>
       <c r="D167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E167" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F167">
         <v>155000</v>
@@ -6393,10 +7290,16 @@
         <v>0</v>
       </c>
       <c r="V167" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W167" t="s">
+        <v>109</v>
+      </c>
+      <c r="X167" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6404,10 +7307,10 @@
         <v>98</v>
       </c>
       <c r="D168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E168" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F168">
         <v>500000</v>
@@ -6422,10 +7325,16 @@
         <v>0</v>
       </c>
       <c r="V168" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W168" t="s">
+        <v>99</v>
+      </c>
+      <c r="X168" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6433,10 +7342,10 @@
         <v>73</v>
       </c>
       <c r="D169" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F169">
         <v>93000</v>
@@ -6451,10 +7360,16 @@
         <v>0</v>
       </c>
       <c r="V169" t="s">
+        <v>286</v>
+      </c>
+      <c r="W169" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="X169" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6462,10 +7377,10 @@
         <v>93</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F170">
         <v>28000</v>
@@ -6480,31 +7395,37 @@
         <v>0</v>
       </c>
       <c r="V170" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22">
+        <v>286</v>
+      </c>
+      <c r="W170" t="s">
+        <v>306</v>
+      </c>
+      <c r="X170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F173">
         <v>272445227.34</v>
